--- a/SubRES_TMPL/SubRes_ELC_Techs.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_Techs.xlsx
@@ -5,14 +5,14 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\TIMES Course\Mordor Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Olexandr\ResLab\Modelling\TIMES\TIMES-Shire\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="9528" windowHeight="5736" tabRatio="736"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="9525" windowHeight="5738" tabRatio="736" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tech" sheetId="2" r:id="rId1"/>
+    <sheet name="ELC_Tech" sheetId="2" r:id="rId1"/>
     <sheet name="Proc" sheetId="13" r:id="rId2"/>
     <sheet name="Comm" sheetId="12" r:id="rId3"/>
   </sheets>
@@ -25,7 +25,7 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tech!$B$17:$Y$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ELC_Tech!$B$17:$Y$24</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="BiomassLargeCHP">[1]TechnologyData!$A$14:$M$41</definedName>
@@ -35,7 +35,7 @@
     <definedName name="Eksportstigning">[1]Plants!$J$6</definedName>
     <definedName name="ElBoiler">[1]TechnologyData!$O$72:$AA$99</definedName>
     <definedName name="ElPriceMix">[1]Subsidy!#REF!</definedName>
-    <definedName name="Euro">Tech!$F$2</definedName>
+    <definedName name="Euro">ELC_Tech!$F$2</definedName>
     <definedName name="Fastprisår">[2]Forside!$B$5</definedName>
     <definedName name="FIXWINOFF">'[3]O&amp;M waste and WIN '!$K$13</definedName>
     <definedName name="FIXWINON">'[3]O&amp;M waste and WIN '!$K$14</definedName>
@@ -63,7 +63,7 @@
     <definedName name="WasteCHP">[1]TechnologyData!$A$101:$M$129</definedName>
     <definedName name="Wood_SmallBP">[1]TechnologyData!$A$131:$M$158</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>~FI_T</t>
   </si>
@@ -408,11 +408,14 @@
   <si>
     <t>MEuros11</t>
   </si>
+  <si>
+    <t>Natural Gas ELC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="14">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -21526,14 +21529,14 @@
   </sheetPr>
   <dimension ref="B12:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
     <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
@@ -21541,8 +21544,8 @@
     <col min="6" max="7" width="10.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="17" width="10.6640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.109375" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="2"/>
+    <col min="18" max="19" width="9.1328125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="12" spans="2:18">
@@ -21558,7 +21561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="28.8">
+    <row r="15" spans="2:18" ht="28.5">
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
@@ -21660,7 +21663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16.95" customHeight="1" thickBot="1">
+    <row r="17" spans="2:18" ht="17" customHeight="1" thickBot="1">
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
@@ -23260,13 +23263,13 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.53125" customWidth="1"/>
+    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="85.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -23310,7 +23313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="28.8">
+    <row r="5" spans="2:9" ht="28.5">
       <c r="B5" s="28" t="s">
         <v>35</v>
       </c>
@@ -24070,17 +24073,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="17.88671875" customWidth="1"/>
+    <col min="2" max="3" width="17.86328125" customWidth="1"/>
     <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="17.88671875" customWidth="1"/>
+    <col min="5" max="9" width="17.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -24121,7 +24124,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29.4" thickBot="1">
+    <row r="4" spans="2:9" ht="28.9" thickBot="1">
       <c r="B4" s="40" t="s">
         <v>55</v>
       </c>
@@ -24182,17 +24185,15 @@
       <c r="I6" s="29"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="29" t="s">
-        <v>68</v>
-      </c>
+      <c r="B7" s="29"/>
       <c r="C7" s="29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -24200,11 +24201,14 @@
       <c r="I7" s="29"/>
     </row>
     <row r="8" spans="2:9">
+      <c r="B8" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="C8" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>69</v>
@@ -24216,10 +24220,10 @@
     </row>
     <row r="9" spans="2:9">
       <c r="C9" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>69</v>
@@ -24230,13 +24234,13 @@
       <c r="I9" s="29"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="C10" t="s">
-        <v>85</v>
+      <c r="C10" s="29" t="s">
+        <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>67</v>
+      <c r="D10" s="29" t="s">
+        <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="29" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="29"/>
@@ -24245,6 +24249,15 @@
       <c r="I10" s="29"/>
     </row>
     <row r="11" spans="2:9">
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
@@ -24269,7 +24282,6 @@
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -24281,6 +24293,13 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24417,13 +24436,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9DF6E-68FE-45A8-BDA3-84DE9F195B95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9DF6E-68FE-45A8-BDA3-84DE9F195B95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53BAAB9-8129-4F09-B4B9-21AC985D2CBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B53BAAB9-8129-4F09-B4B9-21AC985D2CBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E160B5-8E43-442E-B807-18C5D0DE9719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E160B5-8E43-442E-B807-18C5D0DE9719}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SubRES_TMPL/SubRes_ELC_Techs.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_Techs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="9525" windowHeight="5738" tabRatio="736" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="9525" windowHeight="5738" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_Tech" sheetId="2" r:id="rId1"/>
@@ -403,13 +403,13 @@
     <t>MEuros/PJ</t>
   </si>
   <si>
-    <t>MEuros13</t>
+    <t>Natural Gas ELC</t>
   </si>
   <si>
-    <t>MEuros11</t>
+    <t>MEUR2013</t>
   </si>
   <si>
-    <t>Natural Gas ELC</t>
+    <t>MEUR2011</t>
   </si>
 </sst>
 </file>
@@ -21531,7 +21531,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
@@ -21714,7 +21714,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" s="19">
         <v>2013</v>
@@ -21760,7 +21760,7 @@
       <c r="D19" s="45"/>
       <c r="E19" s="18"/>
       <c r="F19" s="56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G19" s="19">
         <v>2020</v>
@@ -21804,7 +21804,7 @@
       <c r="D20" s="45"/>
       <c r="E20" s="18"/>
       <c r="F20" s="56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="19">
         <v>2030</v>
@@ -21848,7 +21848,7 @@
       <c r="D21" s="45"/>
       <c r="E21" s="18"/>
       <c r="F21" s="56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G21" s="19">
         <v>2040</v>
@@ -21892,7 +21892,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="18"/>
       <c r="F22" s="56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="19">
         <v>2050</v>
@@ -21944,7 +21944,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="43">
         <v>2015</v>
@@ -21993,7 +21993,7 @@
         <v>70</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G24" s="43">
         <v>2020</v>
@@ -22028,7 +22028,7 @@
       <c r="D25" s="43"/>
       <c r="E25" s="13"/>
       <c r="F25" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G25" s="43">
         <v>2030</v>
@@ -22062,7 +22062,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="13"/>
       <c r="F26" s="56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G26" s="43">
         <v>2050</v>
@@ -23259,7 +23259,7 @@
   </sheetPr>
   <dimension ref="B3:I78"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -24075,7 +24075,7 @@
   </sheetPr>
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -24190,7 +24190,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>63</v>
@@ -24307,6 +24307,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100028FD4181988DA42A7F39A8E55AED015" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="800875004252cf03a3c313b269c629db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -24420,32 +24435,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9DF6E-68FE-45A8-BDA3-84DE9F195B95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E160B5-8E43-442E-B807-18C5D0DE9719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -24460,9 +24453,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E160B5-8E43-442E-B807-18C5D0DE9719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9DF6E-68FE-45A8-BDA3-84DE9F195B95}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>

--- a/SubRES_TMPL/SubRes_ELC_Techs.xlsx
+++ b/SubRES_TMPL/SubRes_ELC_Techs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!Olexandr\ResLab\Modelling\TIMES\TIMES-Shire\SubRES_TMPL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="9525" windowHeight="5738" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="9525" windowHeight="5745" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="ELC_Tech" sheetId="2" r:id="rId1"/>
@@ -63,7 +58,7 @@
     <definedName name="WasteCHP">[1]TechnologyData!$A$101:$M$129</definedName>
     <definedName name="Wood_SmallBP">[1]TechnologyData!$A$131:$M$158</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -73,7 +68,7 @@
     <author>Rikke Næraa</author>
   </authors>
   <commentList>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="R17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,9 +313,6 @@
     <t>ton</t>
   </si>
   <si>
-    <t>HETC</t>
-  </si>
-  <si>
     <t>04  Gas Turbine Single Cycle - Large Scale Plant centralised</t>
   </si>
   <si>
@@ -379,9 +371,6 @@
     <t>ECNGAGTBPC5N</t>
   </si>
   <si>
-    <t>Gas Turbine Single Cycle - Large Scale Plant centralised</t>
-  </si>
-  <si>
     <t>ETURNLWR13N</t>
   </si>
   <si>
@@ -411,26 +400,32 @@
   <si>
     <t>MEUR2011</t>
   </si>
+  <si>
+    <t>HET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas Turbine Single Cycle - Large Scale Plant </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
-    <numFmt numFmtId="168" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="171" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
-    <numFmt numFmtId="173" formatCode="0_ ;\-0\ "/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0;\-\ #,##0;_-\ &quot;- &quot;"/>
+    <numFmt numFmtId="169" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="171" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="172" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
+    <numFmt numFmtId="174" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -1547,172 +1542,172 @@
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1820,50 +1815,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1944,161 +1939,161 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2163,7 +2158,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="36" borderId="16" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
@@ -2176,300 +2171,300 @@
     </xf>
     <xf numFmtId="3" fontId="48" fillId="37" borderId="16" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="16" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="45" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="19">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2477,376 +2472,376 @@
     <xf numFmtId="4" fontId="43" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="174" fontId="50" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -2863,7 +2858,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="174" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="43" fillId="0" borderId="18" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2878,275 +2873,275 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="40" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="36" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="39" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="52" fillId="30" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="53" fillId="40" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="174" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3539,613 +3534,613 @@
     <xf numFmtId="0" fontId="46" fillId="33" borderId="16" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="36" borderId="16" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -4252,226 +4247,226 @@
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4797,7 +4792,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4845,68 +4840,68 @@
     <xf numFmtId="0" fontId="11" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="19">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="57" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="173" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4915,7 +4910,7 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="42" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4923,784 +4918,784 @@
     <xf numFmtId="0" fontId="56" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -5823,7 +5818,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="174" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="4" fontId="43" fillId="0" borderId="18" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5841,50 +5836,50 @@
     <xf numFmtId="0" fontId="33" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="43" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -6178,42 +6173,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="31" fillId="3" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="28" fillId="8" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="31" fillId="3" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="28" fillId="8" borderId="0" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="31" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="31" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="31" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="31" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="28" fillId="8" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="28" fillId="8" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="61" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="30" fillId="70" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="62" fillId="71" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="70" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="61" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="71" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="62" fillId="70" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4489" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4490" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6222,12 +6217,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="444" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="444" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="444" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="444" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="61" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="30" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4491">
     <cellStyle name="_x000a_shell=progma 2" xfId="657"/>
@@ -21280,7 +21275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21315,7 +21310,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21529,23 +21524,23 @@
   </sheetPr>
   <dimension ref="B12:R219"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="2"/>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="17" width="10.6640625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9.1328125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.1328125" style="2"/>
+    <col min="9" max="17" width="10.7109375" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="12" spans="2:18">
@@ -21561,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="28.5">
+    <row r="15" spans="2:18" ht="30">
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
@@ -21575,7 +21570,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>5</v>
@@ -21620,50 +21615,50 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>84</v>
+      <c r="O16" s="7" t="s">
+        <v>74</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="17" customHeight="1" thickBot="1">
+    </row>
+    <row r="17" spans="2:18" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
@@ -21671,20 +21666,20 @@
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N17" s="10" t="s">
         <v>18</v>
@@ -21697,24 +21692,24 @@
         <v>19</v>
       </c>
       <c r="R17" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="19">
         <v>2013</v>
@@ -21760,7 +21755,7 @@
       <c r="D19" s="45"/>
       <c r="E19" s="18"/>
       <c r="F19" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G19" s="19">
         <v>2020</v>
@@ -21804,7 +21799,7 @@
       <c r="D20" s="45"/>
       <c r="E20" s="18"/>
       <c r="F20" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="19">
         <v>2030</v>
@@ -21848,7 +21843,7 @@
       <c r="D21" s="45"/>
       <c r="E21" s="18"/>
       <c r="F21" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G21" s="19">
         <v>2040</v>
@@ -21892,7 +21887,7 @@
       <c r="D22" s="45"/>
       <c r="E22" s="18"/>
       <c r="F22" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="19">
         <v>2050</v>
@@ -21932,10 +21927,10 @@
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>25</v>
@@ -21944,7 +21939,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="43">
         <v>2015</v>
@@ -21990,10 +21985,10 @@
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
       <c r="E24" s="13" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="43">
         <v>2020</v>
@@ -22028,7 +22023,7 @@
       <c r="D25" s="43"/>
       <c r="E25" s="13"/>
       <c r="F25" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" s="43">
         <v>2030</v>
@@ -22062,7 +22057,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="13"/>
       <c r="F26" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" s="43">
         <v>2050</v>
@@ -23259,20 +23254,20 @@
   </sheetPr>
   <dimension ref="B3:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.53125" customWidth="1"/>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
@@ -23313,7 +23308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="28.5">
+    <row r="5" spans="2:9" ht="30">
       <c r="B5" s="28" t="s">
         <v>35</v>
       </c>
@@ -23344,10 +23339,10 @@
         <v>44</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>63</v>
@@ -23366,10 +23361,10 @@
         <v>43</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>63</v>
@@ -24079,11 +24074,11 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="17.86328125" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="17.86328125" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -24124,7 +24119,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="28.9" thickBot="1">
+    <row r="4" spans="2:9" ht="30.75" thickBot="1">
       <c r="B4" s="40" t="s">
         <v>55</v>
       </c>
@@ -24155,10 +24150,10 @@
         <v>62</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>63</v>
@@ -24171,10 +24166,10 @@
     <row r="6" spans="2:9">
       <c r="B6" s="29"/>
       <c r="C6" s="29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>63</v>
@@ -24190,7 +24185,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>63</v>
@@ -24250,7 +24245,7 @@
     </row>
     <row r="11" spans="2:9">
       <c r="C11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
@@ -24307,21 +24302,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100028FD4181988DA42A7F39A8E55AED015" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="800875004252cf03a3c313b269c629db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -24435,10 +24415,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E160B5-8E43-442E-B807-18C5D0DE9719}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9DF6E-68FE-45A8-BDA3-84DE9F195B95}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -24453,16 +24455,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9DF6E-68FE-45A8-BDA3-84DE9F195B95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E160B5-8E43-442E-B807-18C5D0DE9719}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
